--- a/redisDoc/Air Pollution Project Redis Schema.xlsx
+++ b/redisDoc/Air Pollution Project Redis Schema.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiweizhou/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiweizhou/Desktop/redis-demo/redisDoc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -811,9 +811,6 @@
     <t>s_u:mapping:[ssn]</t>
   </si>
   <si>
-    <t>list</t>
-  </si>
-  <si>
     <t>ssn1,ssn2,ssn3..</t>
   </si>
   <si>
@@ -842,6 +839,9 @@
   </si>
   <si>
     <t>Change proposal by Terry Zhou:</t>
+  </si>
+  <si>
+    <t>list/set</t>
   </si>
 </sst>
 </file>
@@ -1309,14 +1309,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1354,21 +1346,29 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1727,8 +1727,8 @@
   </sheetPr>
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:H31"/>
+    <sheetView topLeftCell="A38" zoomScale="179" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1788,11 +1788,11 @@
     </row>
     <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
       <c r="G5" s="7"/>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="16" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="60"/>
+      <c r="C16" s="81"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -2370,11 +2370,11 @@
     </row>
     <row r="33" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
       <c r="E33" s="25"/>
       <c r="F33" s="26"/>
       <c r="G33" s="25"/>
@@ -2644,11 +2644,11 @@
     </row>
     <row r="46" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="62" t="s">
+      <c r="B46" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
       <c r="E46" s="31"/>
       <c r="F46" s="32"/>
       <c r="G46" s="31"/>
@@ -2800,11 +2800,11 @@
     </row>
     <row r="54" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
-      <c r="B54" s="63" t="s">
+      <c r="B54" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="C54" s="60"/>
-      <c r="D54" s="60"/>
+      <c r="C54" s="81"/>
+      <c r="D54" s="81"/>
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
       <c r="G54" s="37"/>
@@ -2966,11 +2966,11 @@
     </row>
     <row r="62" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" s="47"/>
-      <c r="B62" s="64" t="s">
+      <c r="B62" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="C62" s="60"/>
-      <c r="D62" s="60"/>
+      <c r="C62" s="81"/>
+      <c r="D62" s="81"/>
       <c r="E62" s="49"/>
       <c r="F62" s="50"/>
       <c r="G62" s="49"/>
@@ -3458,8 +3458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:B39"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="138" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63:E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3472,11 +3472,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
       <c r="D1" s="25"/>
       <c r="E1" s="26"/>
       <c r="F1" s="25"/>
@@ -3724,11 +3724,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
       <c r="D14" s="31"/>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
@@ -3863,10 +3863,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="60"/>
+      <c r="B22" s="81"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -4197,185 +4197,185 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A39" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="B39" s="66"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="68"/>
+      <c r="A39" s="95" t="s">
+        <v>266</v>
+      </c>
+      <c r="B39" s="96"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="60"/>
     </row>
     <row r="41" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A41" s="61" t="s">
+      <c r="A41" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="75"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="67"/>
       <c r="E41" s="26"/>
       <c r="F41" s="25"/>
       <c r="G41" s="27"/>
     </row>
     <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="69" t="s">
+      <c r="A42" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="70" t="s">
+      <c r="B42" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="74" t="s">
+      <c r="C42" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="76" t="s">
+      <c r="D42" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="70" t="s">
+      <c r="E42" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="F42" s="70" t="s">
+      <c r="F42" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="70" t="s">
+      <c r="G42" s="62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="85">
+      <c r="A43" s="86">
         <v>1</v>
       </c>
-      <c r="B43" s="85" t="s">
+      <c r="B43" s="86" t="s">
         <v>229</v>
       </c>
-      <c r="C43" s="85" t="s">
+      <c r="C43" s="86" t="s">
         <v>237</v>
       </c>
-      <c r="D43" s="77" t="s">
+      <c r="D43" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="E43" s="85"/>
-      <c r="F43" s="85" t="s">
+      <c r="E43" s="86"/>
+      <c r="F43" s="86" t="s">
         <v>230</v>
       </c>
-      <c r="G43" s="85" t="s">
+      <c r="G43" s="86" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="86"/>
-      <c r="B44" s="86"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="80" t="s">
+      <c r="A44" s="87"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="72" t="s">
         <v>252</v>
       </c>
-      <c r="E44" s="86"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="86"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="87"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="86"/>
-      <c r="B45" s="86"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="80" t="s">
+      <c r="A45" s="87"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="72" t="s">
         <v>241</v>
       </c>
-      <c r="E45" s="86"/>
-      <c r="F45" s="86"/>
-      <c r="G45" s="86"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="87"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="86"/>
-      <c r="B46" s="86"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="80" t="s">
+      <c r="A46" s="87"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="72" t="s">
         <v>242</v>
       </c>
-      <c r="E46" s="86"/>
-      <c r="F46" s="86"/>
-      <c r="G46" s="86"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="87"/>
+      <c r="G46" s="87"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="86"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="80" t="s">
+      <c r="A47" s="87"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="72" t="s">
         <v>243</v>
       </c>
-      <c r="E47" s="86"/>
-      <c r="F47" s="86"/>
-      <c r="G47" s="86"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="87"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="86"/>
-      <c r="B48" s="86"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="80" t="s">
+      <c r="A48" s="87"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="72" t="s">
         <v>244</v>
       </c>
-      <c r="E48" s="86"/>
-      <c r="F48" s="86"/>
-      <c r="G48" s="86"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="87"/>
+      <c r="G48" s="87"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="86"/>
-      <c r="B49" s="86"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="80" t="s">
+      <c r="A49" s="87"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="72" t="s">
         <v>245</v>
       </c>
-      <c r="E49" s="86"/>
-      <c r="F49" s="86"/>
-      <c r="G49" s="86"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="87"/>
+      <c r="G49" s="87"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="86"/>
-      <c r="B50" s="86"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="80" t="s">
+      <c r="A50" s="87"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="72" t="s">
         <v>246</v>
       </c>
-      <c r="E50" s="86"/>
-      <c r="F50" s="86"/>
-      <c r="G50" s="86"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="87"/>
+      <c r="G50" s="87"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="87"/>
-      <c r="B51" s="87"/>
-      <c r="C51" s="87"/>
-      <c r="D51" s="81" t="s">
+      <c r="A51" s="88"/>
+      <c r="B51" s="88"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="73" t="s">
         <v>247</v>
       </c>
-      <c r="E51" s="87"/>
-      <c r="F51" s="87"/>
-      <c r="G51" s="87"/>
+      <c r="E51" s="88"/>
+      <c r="F51" s="88"/>
+      <c r="G51" s="88"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="71">
+      <c r="A52" s="63">
         <v>2</v>
       </c>
-      <c r="B52" s="71" t="s">
+      <c r="B52" s="63" t="s">
         <v>232</v>
       </c>
-      <c r="C52" s="71" t="s">
+      <c r="C52" s="63" t="s">
         <v>236</v>
       </c>
-      <c r="D52" s="73" t="s">
+      <c r="D52" s="65" t="s">
         <v>233</v>
       </c>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71" t="s">
+      <c r="E52" s="63"/>
+      <c r="F52" s="63" t="s">
         <v>234</v>
       </c>
-      <c r="G52" s="71" t="s">
+      <c r="G52" s="63" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A54" s="59" t="s">
+      <c r="A54" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="B54" s="60"/>
+      <c r="B54" s="81"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
@@ -4383,178 +4383,183 @@
       <c r="G54" s="17"/>
     </row>
     <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="78" t="s">
+      <c r="A55" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="78" t="s">
+      <c r="B55" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="78" t="s">
+      <c r="C55" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="78" t="s">
+      <c r="D55" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E55" s="78" t="s">
+      <c r="E55" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F55" s="78" t="s">
+      <c r="F55" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="78" t="s">
+      <c r="G55" s="70" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="169" x14ac:dyDescent="0.15">
-      <c r="A56" s="71">
+      <c r="A56" s="63">
         <v>1</v>
       </c>
-      <c r="B56" s="79" t="s">
+      <c r="B56" s="71" t="s">
         <v>249</v>
       </c>
-      <c r="C56" s="71" t="s">
+      <c r="C56" s="63" t="s">
         <v>238</v>
       </c>
-      <c r="D56" s="72" t="s">
+      <c r="D56" s="64" t="s">
         <v>239</v>
       </c>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71" t="s">
+      <c r="E56" s="63"/>
+      <c r="F56" s="63" t="s">
         <v>230</v>
       </c>
-      <c r="G56" s="71" t="s">
+      <c r="G56" s="63" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="71">
+      <c r="A57" s="63">
         <v>2</v>
       </c>
-      <c r="B57" s="71" t="s">
+      <c r="B57" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="C57" s="71" t="s">
+      <c r="C57" s="63" t="s">
         <v>250</v>
       </c>
-      <c r="D57" s="71" t="s">
+      <c r="D57" s="63" t="s">
         <v>251</v>
       </c>
-      <c r="E57" s="71"/>
-      <c r="F57" s="71" t="s">
+      <c r="E57" s="63"/>
+      <c r="F57" s="63" t="s">
         <v>234</v>
       </c>
-      <c r="G57" s="71" t="s">
+      <c r="G57" s="63" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A59" s="90" t="s">
+      <c r="A59" s="93" t="s">
         <v>126</v>
       </c>
-      <c r="B59" s="91"/>
-      <c r="C59" s="91"/>
-      <c r="D59" s="92"/>
-      <c r="E59" s="93"/>
-      <c r="F59" s="92"/>
-      <c r="G59" s="92"/>
+      <c r="B59" s="94"/>
+      <c r="C59" s="94"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="76"/>
     </row>
     <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="94" t="s">
+      <c r="A60" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="94" t="s">
+      <c r="B60" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="94" t="s">
+      <c r="C60" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="94" t="s">
+      <c r="D60" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="E60" s="94" t="s">
+      <c r="E60" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="F60" s="94" t="s">
+      <c r="F60" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="G60" s="94" t="s">
+      <c r="G60" s="78" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="71">
+      <c r="A61" s="63">
         <v>1</v>
       </c>
-      <c r="B61" s="71" t="s">
+      <c r="B61" s="63" t="s">
         <v>253</v>
       </c>
-      <c r="C61" s="71" t="s">
+      <c r="C61" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="D61" s="71" t="s">
+      <c r="D61" s="63" t="s">
+        <v>257</v>
+      </c>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="G61" s="89" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62" s="63">
+        <v>2</v>
+      </c>
+      <c r="B62" s="63" t="s">
+        <v>254</v>
+      </c>
+      <c r="C62" s="63" t="s">
+        <v>256</v>
+      </c>
+      <c r="D62" s="79" t="s">
         <v>258</v>
       </c>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71" t="s">
-        <v>257</v>
-      </c>
-      <c r="G61" s="84" t="s">
+      <c r="E62" s="63"/>
+      <c r="F62" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="G62" s="89"/>
+    </row>
+    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="89">
+        <v>3</v>
+      </c>
+      <c r="B63" s="89" t="s">
+        <v>259</v>
+      </c>
+      <c r="C63" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="D63" s="74" t="s">
+        <v>261</v>
+      </c>
+      <c r="E63" s="91"/>
+      <c r="F63" s="89" t="s">
+        <v>263</v>
+      </c>
+      <c r="G63" s="92" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="71">
-        <v>2</v>
-      </c>
-      <c r="B62" s="71" t="s">
-        <v>254</v>
-      </c>
-      <c r="C62" s="71" t="s">
-        <v>256</v>
-      </c>
-      <c r="D62" s="96" t="s">
-        <v>259</v>
-      </c>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71" t="s">
-        <v>257</v>
-      </c>
-      <c r="G62" s="84"/>
-    </row>
-    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="84">
-        <v>3</v>
-      </c>
-      <c r="B63" s="84" t="s">
-        <v>260</v>
-      </c>
-      <c r="C63" s="88" t="s">
-        <v>261</v>
-      </c>
-      <c r="D63" s="82" t="s">
+    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="89"/>
+      <c r="B64" s="89"/>
+      <c r="C64" s="90"/>
+      <c r="D64" s="75" t="s">
         <v>262</v>
       </c>
-      <c r="E63" s="89"/>
-      <c r="F63" s="84" t="s">
-        <v>264</v>
-      </c>
-      <c r="G63" s="95" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="84"/>
-      <c r="B64" s="84"/>
-      <c r="C64" s="88"/>
-      <c r="D64" s="83" t="s">
-        <v>263</v>
-      </c>
-      <c r="E64" s="89"/>
-      <c r="F64" s="84"/>
-      <c r="G64" s="95"/>
+      <c r="E64" s="91"/>
+      <c r="F64" s="89"/>
+      <c r="G64" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A41:C41"/>
     <mergeCell ref="F43:F51"/>
     <mergeCell ref="G43:G51"/>
     <mergeCell ref="A63:A64"/>
@@ -4569,11 +4574,6 @@
     <mergeCell ref="B43:B51"/>
     <mergeCell ref="C43:C51"/>
     <mergeCell ref="E43:E51"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A41:C41"/>
     <mergeCell ref="A54:B54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
